--- a/biology/Médecine/Trouble_comportemental_de_guerre/Trouble_comportemental_de_guerre.xlsx
+++ b/biology/Médecine/Trouble_comportemental_de_guerre/Trouble_comportemental_de_guerre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les troubles comportementaux de guerre sont des troubles psychiques et relationnels qui apparaissent en condition de guerre ou de stress intense, ou à la suite d'une exposition à ces conditions. Ils peuvent affecter des soldats, leurs familles et proches ou d'autres acteurs (actifs ou passifs) d'un conflit armé.
 </t>
@@ -511,7 +523,9 @@
           <t>Nature de ces troubles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux auteurs ont depuis l'Antiquité rapporté — en conditions de conflits ou de violences subies (dont privation de liberté) — des constats d'augmentation de la cruauté, de l'insensibilité, voire de sadisme ou de folie.
 Le stress à l'origine du trouble peut être constant ou passager mais récurrent. Il peut n'être ressenti que par la victime du trouble (par exemple dans le cas d'une situation forçant la personne à revivre un évènement traumatique passé tel que situation de guerre, viol, assassinat, torture, etc.).
@@ -555,7 +569,9 @@
           <t>Histoire de la prise de conscience de ces troubles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès la Première Guerre mondiale, la psychiatrie militaire a identifié divers syndromes, plus ou moins bien compris, dits « Shell-Shock », « Battle Stress » et « Battle Fatigue ». De nombreux soldats étaient accusés d'être des simulateurs, et beaucoup ont été fusillés ou enfermés pour cette raison.
 Les guerres nucléaires (ou états de victimes d'essais nucléaires ratés) ont suscité des troubles nouveaux où les aspects socio-psychologiques ne doivent pas cacher de probables causes biologiques réelles.
@@ -588,7 +604,9 @@
           <t>Hypothèses explicatives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux explications sont souvent données (complémentaires ou à additionner, par exemple chez les soldats des tranchées de la Première Guerre mondiale) ;
 L'épuisement physique (fatigue physique, manque de sommeil, perturbation du rythme de veille, marches forcées, douleur physique dépassant la résistance normale de l'individu...), auquel on peut parfois ajouter l'exposition à certaines toxines (cf. armes chimiques, toxicité des munitions, alimentation avariée...). Dans ces cas, les troubles sont généralement temporaires.
@@ -623,7 +641,9 @@
           <t>Troubles somatiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains troubles qu'on a d'abord classés comme ayant une origine psychosomatique pourraient en fait également ou totalement avoir des causes organiques ; 
 Les soldats des guerres modernes sont exposés à :
@@ -660,7 +680,9 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La bonne compréhension de ces troubles, et leur reconnaissance permet les conditions d'une meilleure résilience (individuelle et collective), nécessaire à la résolution non-violente des conflits. Sinon, ils seront souvent un facteur entretenant le racisme ou la haine qui sera source de nouveaux conflits. 
 </t>
